--- a/BiceE Documentation/FRA Historical Plan.xlsx
+++ b/BiceE Documentation/FRA Historical Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Rankin\Documents\Paradox Interactive\Hearts of Iron IV\mod\BiceExpandedLocal\BiceE Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Rankin\Documents\Paradox Interactive\Hearts of Iron IV\mod\BlackICE-Expanded\BiceE Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB6226-D141-4988-A3D0-06F1F6BD85D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26B3DDE-EBC2-4A67-B788-B03C435DDC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{4CEBE7C9-E6FE-4393-BB13-E322055FE4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Start Date:</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>FRA_foreign_legion</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -374,12 +377,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -397,13 +406,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3377FABB-4E2B-47CA-A641-3F8E90BCC86A}" name="Table1" displayName="Table1" ref="A3:D106" totalsRowShown="0">
-  <autoFilter ref="A3:D106" xr:uid="{1CB006AB-F85A-4074-84F8-01DE4035AD63}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{827818B5-3076-462B-BD22-4839E52AA680}" name="Focus Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3377FABB-4E2B-47CA-A641-3F8E90BCC86A}" name="Table1" displayName="Table1" ref="A3:E106" totalsRowShown="0">
+  <autoFilter ref="A3:E106" xr:uid="{1CB006AB-F85A-4074-84F8-01DE4035AD63}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{827818B5-3076-462B-BD22-4839E52AA680}" name="#" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D23092A8-C6A9-4337-B1B1-0DE7A5F781C1}" name="Focus Name"/>
     <tableColumn id="2" xr3:uid="{9387B2A0-73C0-46CA-8ACD-7DD7AFB4804A}" name="Focus Duration"/>
-    <tableColumn id="3" xr3:uid="{F8EB19F8-645D-45FD-8696-B1B8B573760E}" name="Date Finish" dataDxfId="0">
-      <calculatedColumnFormula>B4+C3</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{F8EB19F8-645D-45FD-8696-B1B8B573760E}" name="Date Finish" dataDxfId="1">
+      <calculatedColumnFormula>C4+D3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{A76C3154-707D-452C-8222-54547E4F5E0A}" name="Notes"/>
   </tableColumns>
@@ -708,1153 +718,1568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5168CB-632A-4645-9810-F038E7CD2226}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <f>DATE(1936,1,1)</f>
         <v>13150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <f>B1+B4</f>
+      <c r="D4" s="1">
+        <f>C1+C4</f>
         <v>13164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
-        <f>B5+C4</f>
+      <c r="D5" s="1">
+        <f>C5+D4</f>
         <v>13185</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" ref="A6:A69" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C13" si="0">B6+C5</f>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D13" si="1">C6+D5</f>
         <v>13213</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
         <v>13241</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
         <v>13269</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>133</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
         <v>13402</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
         <v>13416</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
         <v>13437</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
         <v>13465</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
         <v>13493</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:C45" si="1">B14+C13</f>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D45" si="2">C14+D13</f>
         <v>13507</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
         <v>13535</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
         <v>13563</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>140</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
         <v>13703</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
         <v>13717</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
         <v>13738</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
         <v>13766</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
         <v>13794</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="1"/>
+      <c r="C22" s="4">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
         <v>13822</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
         <v>13850</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
         <v>14</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
         <v>13864</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
         <v>13892</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>21</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
         <v>13913</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
         <v>13934</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="1"/>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
         <v>13962</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="1"/>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
         <v>13990</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="1"/>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
         <v>14018</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>21</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
         <v>14039</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
         <v>14067</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="1"/>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
         <v>14095</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="1"/>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
         <v>14123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>14</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
         <v>14137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>21</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
         <v>14158</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>21</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
         <v>14179</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>21</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
         <v>14200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>21</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="1"/>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
         <v>14221</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>21</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="1"/>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
         <v>14242</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
         <v>14270</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
         <v>14298</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
-        <v>28</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="1"/>
+      <c r="C43">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
         <v>14326</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <v>28</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="1"/>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
         <v>14354</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="1"/>
+      <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
         <v>14382</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" ref="C46:C66" si="2">B46+C45</f>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:D66" si="3">C46+D45</f>
         <v>14396</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>42</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="2"/>
+      <c r="D47" s="1">
+        <f t="shared" si="3"/>
         <v>14438</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
-        <v>28</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="2"/>
+      <c r="C48">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="3"/>
         <v>14466</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="2"/>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="3"/>
         <v>14494</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
-        <f t="shared" si="2"/>
+      <c r="D50" s="1">
+        <f t="shared" si="3"/>
         <v>14501</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
-        <v>28</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="2"/>
+      <c r="C51">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="3"/>
         <v>14529</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>21</v>
       </c>
-      <c r="C52" s="1">
-        <f t="shared" si="2"/>
+      <c r="D52" s="1">
+        <f t="shared" si="3"/>
         <v>14550</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>21</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" si="2"/>
+      <c r="D53" s="1">
+        <f t="shared" si="3"/>
         <v>14571</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>21</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="2"/>
+      <c r="D54" s="1">
+        <f t="shared" si="3"/>
         <v>14592</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="B55">
-        <v>28</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="2"/>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="3"/>
         <v>14620</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
-        <v>28</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="2"/>
+      <c r="C56">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="3"/>
         <v>14648</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
-        <v>28</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="2"/>
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="3"/>
         <v>14676</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>14</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" si="2"/>
+      <c r="D58" s="1">
+        <f t="shared" si="3"/>
         <v>14690</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
-        <v>28</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="2"/>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="3"/>
         <v>14718</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="B60">
-        <v>28</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="2"/>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="3"/>
         <v>14746</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>74</v>
       </c>
-      <c r="B61">
-        <v>28</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="3"/>
         <v>14774</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="B62">
-        <v>28</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
+      <c r="C62">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="3"/>
         <v>14802</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="B63">
-        <v>28</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="2"/>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="3"/>
         <v>14830</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="B64">
-        <v>28</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="2"/>
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="3"/>
         <v>14858</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="B65">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="2"/>
+      <c r="C65">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="3"/>
         <v>14886</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
         <v>60</v>
       </c>
-      <c r="B66">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
+      <c r="C66">
+        <v>28</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="3"/>
         <v>14914</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" ref="C67:C106" si="3">B67+C66</f>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D106" si="4">C67+D66</f>
         <v>14942</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="3"/>
+      <c r="C68">
+        <v>28</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="4"/>
         <v>14970</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
         <v>72</v>
       </c>
-      <c r="B69">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="3"/>
+      <c r="C69">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="4"/>
         <v>14998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <f t="shared" ref="A70:A106" si="5">A69+1</f>
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
-        <v>28</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="3"/>
+      <c r="C70">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="4"/>
         <v>15026</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
-        <v>28</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="3"/>
+      <c r="C71">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="4"/>
         <v>15054</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
         <v>76</v>
       </c>
-      <c r="B72">
-        <v>28</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="3"/>
+      <c r="C72">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="4"/>
         <v>15082</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="B73">
-        <v>28</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="3"/>
+      <c r="C73">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="4"/>
         <v>15110</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="B74">
-        <v>28</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="3"/>
+      <c r="C74">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="4"/>
         <v>15138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="B75">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="3"/>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="4"/>
         <v>15166</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="B76">
-        <v>28</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="3"/>
+      <c r="C76">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="4"/>
         <v>15194</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="B77">
-        <v>28</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="3"/>
+      <c r="C77">
+        <v>28</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="4"/>
         <v>15222</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>35</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" si="3"/>
+      <c r="D78" s="1">
+        <f t="shared" si="4"/>
         <v>15257</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
-        <v>28</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="3"/>
+      <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="4"/>
         <v>15285</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
-        <v>28</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="3"/>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="4"/>
         <v>15313</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="B81">
-        <v>28</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="3"/>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="4"/>
         <v>15341</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
         <v>86</v>
       </c>
-      <c r="B82">
-        <v>28</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="3"/>
+      <c r="C82">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="4"/>
         <v>15369</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="B83">
-        <v>28</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1">
-        <f t="shared" si="3"/>
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="1">
-        <f t="shared" si="3"/>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="4"/>
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="4"/>
         <v>15397</v>
       </c>
     </row>

--- a/BiceE Documentation/FRA Historical Plan.xlsx
+++ b/BiceE Documentation/FRA Historical Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Rankin\Documents\Paradox Interactive\Hearts of Iron IV\mod\BiceExpandedLocal\BiceE Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chimera\Documents\Paradox Interactive\Hearts of Iron IV\mod\BlackICE-Expanded\BiceE Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB6226-D141-4988-A3D0-06F1F6BD85D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6C8BF-373B-4AC3-9409-A99FC91D24AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{4CEBE7C9-E6FE-4393-BB13-E322055FE4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{4CEBE7C9-E6FE-4393-BB13-E322055FE4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5168CB-632A-4645-9810-F038E7CD2226}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +755,11 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f>B1+B4</f>
-        <v>13164</v>
+        <v>13171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
       </c>
       <c r="C5" s="1">
         <f>B5+C4</f>
-        <v>13185</v>
+        <v>13192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C13" si="0">B6+C5</f>
-        <v>13213</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>13241</v>
+        <v>13248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,11 +803,11 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>13269</v>
+        <v>13262</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>13402</v>
+        <v>13395</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>13416</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13437</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>13465</v>
+        <v>13458</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>13493</v>
+        <v>13486</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:C45" si="1">B14+C13</f>
-        <v>13507</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>13535</v>
+        <v>13528</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>13563</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>13703</v>
+        <v>13696</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>13717</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>13738</v>
+        <v>13731</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>13766</v>
+        <v>13759</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>13794</v>
+        <v>13787</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="1"/>
-        <v>13822</v>
+        <v>13815</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>13850</v>
+        <v>13843</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>13864</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>13892</v>
+        <v>13885</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>13913</v>
+        <v>13906</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>13934</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>13962</v>
+        <v>13955</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>13990</v>
+        <v>13983</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>14018</v>
+        <v>14011</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>14039</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>14067</v>
+        <v>14060</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>14095</v>
+        <v>14088</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>14123</v>
+        <v>14116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>14137</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>14158</v>
+        <v>14151</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>14179</v>
+        <v>14172</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>14200</v>
+        <v>14193</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>14221</v>
+        <v>14214</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>14242</v>
+        <v>14235</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>14270</v>
+        <v>14263</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>14298</v>
+        <v>14291</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>14326</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>14354</v>
+        <v>14347</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>14382</v>
+        <v>14375</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ref="C46:C66" si="2">B46+C45</f>
-        <v>14396</v>
+        <v>14389</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="2"/>
-        <v>14438</v>
+        <v>14431</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="2"/>
-        <v>14466</v>
+        <v>14459</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="2"/>
-        <v>14494</v>
+        <v>14487</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="2"/>
-        <v>14501</v>
+        <v>14494</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="2"/>
-        <v>14529</v>
+        <v>14522</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="2"/>
-        <v>14550</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="2"/>
-        <v>14571</v>
+        <v>14564</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="2"/>
-        <v>14592</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="2"/>
-        <v>14620</v>
+        <v>14613</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="2"/>
-        <v>14648</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="2"/>
-        <v>14676</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="2"/>
-        <v>14690</v>
+        <v>14683</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="2"/>
-        <v>14718</v>
+        <v>14711</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="2"/>
-        <v>14746</v>
+        <v>14739</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="2"/>
-        <v>14774</v>
+        <v>14767</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="2"/>
-        <v>14802</v>
+        <v>14795</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="2"/>
-        <v>14830</v>
+        <v>14823</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="2"/>
-        <v>14858</v>
+        <v>14851</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="2"/>
-        <v>14886</v>
+        <v>14879</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="2"/>
-        <v>14914</v>
+        <v>14907</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ref="C67:C106" si="3">B67+C66</f>
-        <v>14942</v>
+        <v>14935</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
-        <v>14970</v>
+        <v>14963</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="3"/>
-        <v>14998</v>
+        <v>14991</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
-        <v>15026</v>
+        <v>15019</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="3"/>
-        <v>15054</v>
+        <v>15047</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="3"/>
-        <v>15082</v>
+        <v>15075</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="3"/>
-        <v>15110</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="3"/>
-        <v>15138</v>
+        <v>15131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="3"/>
-        <v>15166</v>
+        <v>15159</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="3"/>
-        <v>15194</v>
+        <v>15187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="3"/>
-        <v>15222</v>
+        <v>15215</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="3"/>
-        <v>15257</v>
+        <v>15250</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="3"/>
-        <v>15285</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="3"/>
-        <v>15313</v>
+        <v>15306</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="3"/>
-        <v>15341</v>
+        <v>15334</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="3"/>
-        <v>15369</v>
+        <v>15362</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,145 +1717,145 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15390</v>
       </c>
     </row>
   </sheetData>
